--- a/Stocks/M&M.xlsx
+++ b/Stocks/M&M.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1339.6833333333334</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1413.2687020135886</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1390.8110906324707</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>55.35565866971168</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1.7000000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>25.350000000000136</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>6.7061143984222346E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1390.1572145452876</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>9.0982752893014549</v>
       </c>
       <c r="Y67">
         <v>5.7434957583603161</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1380</v>
+      </c>
+      <c r="D83">
+        <v>1380.45</v>
+      </c>
+      <c r="E83">
+        <v>1366.5</v>
+      </c>
+      <c r="F83">
+        <v>1372.75</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1373.2333333333333</v>
+      </c>
+      <c r="H83">
+        <v>1374.5291488958032</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1385.3101207469128</v>
+      </c>
+      <c r="K83">
+        <v>1366.6626984414509</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>44.330376810548415</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>13.950000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.44802867383512401</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1376.9861616200474</v>
+      </c>
+      <c r="W83">
+        <v>1381.5181476552914</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-4.5319860352440173</v>
+      </c>
+      <c r="Y83">
+        <v>-3.0033986887227524</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1375.25</v>
+      </c>
+      <c r="D84">
+        <v>1379</v>
+      </c>
+      <c r="E84">
+        <v>1367.05</v>
+      </c>
+      <c r="F84">
+        <v>1375</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1373.6833333333334</v>
+      </c>
+      <c r="H84">
+        <v>1374.1062411145683</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>1383.9078716920433</v>
+      </c>
+      <c r="K84">
+        <v>1366.7487654544618</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.359601620463089</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>7.9500000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>11.950000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.66527196652719789</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1376.6805982938863</v>
+      </c>
+      <c r="W84">
+        <v>1381.0353219030476</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-4.3547236091612831</v>
+      </c>
+      <c r="Y84">
+        <v>-3.2736636728104584</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1385</v>
+      </c>
+      <c r="D85">
+        <v>1388.55</v>
+      </c>
+      <c r="E85">
+        <v>1353.85</v>
+      </c>
+      <c r="F85">
+        <v>1360</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1367.4666666666665</v>
+      </c>
+      <c r="H85">
+        <v>1370.7864538906174</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1384.939455760478</v>
+      </c>
+      <c r="K85">
+        <v>1363.882373131248</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>28.159819756989535</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>6.1500000000000909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>34.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.17723342939481507</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V85">
+        <v>1374.1143524025192</v>
+      </c>
+      <c r="W85">
+        <v>1379.4771499102292</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.3627975077099563</v>
+      </c>
+      <c r="Y85">
+        <v>-3.6914904397903578</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1358</v>
+      </c>
+      <c r="D86">
+        <v>1360.3</v>
+      </c>
+      <c r="E86">
+        <v>1333</v>
+      </c>
+      <c r="F86">
+        <v>1344.1</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1345.8</v>
+      </c>
+      <c r="H86">
+        <v>1358.2932269453086</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1379.4640211470385</v>
+      </c>
+      <c r="K86">
+        <v>1357.0196235465262</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>17.946672971456561</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.099999999999909</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>27.299999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.40659340659340393</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1369.4967597252084</v>
+      </c>
+      <c r="W86">
+        <v>1376.8566202872491</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.3598605620406943</v>
+      </c>
+      <c r="Y86">
+        <v>-4.4251644642404253</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1344.8</v>
+      </c>
+      <c r="D87">
+        <v>1351.65</v>
+      </c>
+      <c r="E87">
+        <v>1336.9</v>
+      </c>
+      <c r="F87">
+        <v>1346.8</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1345.1166666666668</v>
+      </c>
+      <c r="H87">
+        <v>1351.7049468059877</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>1373.2831275588078</v>
+      </c>
+      <c r="K87">
+        <v>1352.5485960917426</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>23.812008743661242</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>9.8999999999998636</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.67118644067795685</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1366.0049505367149</v>
+      </c>
+      <c r="W87">
+        <v>1374.6302039696752</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-8.625253432960335</v>
+      </c>
+      <c r="Y87">
+        <v>-5.2651822579844074</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1348</v>
+      </c>
+      <c r="D88">
+        <v>1348</v>
+      </c>
+      <c r="E88">
+        <v>1324.1</v>
+      </c>
+      <c r="F88">
+        <v>1326.35</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1332.8166666666666</v>
+      </c>
+      <c r="H88">
+        <v>1342.2608067363271</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1367.6646547679616</v>
+      </c>
+      <c r="K88">
+        <v>1346.2266858491332</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>14.201182127849021</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>9.4142259414225576E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>1359.9041889156817</v>
+      </c>
+      <c r="W88">
+        <v>1371.0538925645142</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-11.149703648832428</v>
+      </c>
+      <c r="Y88">
+        <v>-6.4420865361540116</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>1345.3000000000002</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>1338.8500000000001</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>1336.0500000000002</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>1333.25</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1329.05</v>
+      </c>
+      <c r="D89">
+        <v>1331.45</v>
+      </c>
+      <c r="E89">
+        <v>1313.45</v>
+      </c>
+      <c r="F89">
+        <v>1325</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1323.3</v>
+      </c>
+      <c r="H89">
+        <v>1332.7804033681637</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1359.6169537084145</v>
+      </c>
+      <c r="K89">
+        <v>1338.9429778826591</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>13.743450460285478</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.549999999999955</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.64166666666666416</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1354.5343136978845</v>
+      </c>
+      <c r="W89">
+        <v>1367.6424931152908</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-13.108179417406291</v>
+      </c>
+      <c r="Y89">
+        <v>-7.7753051124044674</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1321.4</v>
+      </c>
+      <c r="D90">
+        <v>1324.65</v>
+      </c>
+      <c r="E90">
+        <v>1310</v>
+      </c>
+      <c r="F90">
+        <v>1316.8</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1317.1499999999999</v>
+      </c>
+      <c r="H90">
+        <v>1324.9652016840819</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1351.8465195509891</v>
+      </c>
+      <c r="K90">
+        <v>1332.5112050198459</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>11.041363772934952</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>14.650000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.4641638225255913</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1348.7290346674408</v>
+      </c>
+      <c r="W90">
+        <v>1363.8763825141582</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-15.147347846717366</v>
+      </c>
+      <c r="Y90">
+        <v>-9.2497136592670479</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1318.65</v>
+      </c>
+      <c r="D91">
+        <v>1343</v>
+      </c>
+      <c r="E91">
+        <v>1318.65</v>
+      </c>
+      <c r="F91">
+        <v>1342</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1334.55</v>
+      </c>
+      <c r="H91">
+        <v>1329.757600842041</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1349.8806263174361</v>
+      </c>
+      <c r="K91">
+        <v>1329.4309372376579</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>49.319013183819784</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>23.349999999999909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>24.349999999999909</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.95893223819301832</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1347.6937985647576</v>
+      </c>
+      <c r="W91">
+        <v>1362.2559097353317</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-14.562111170574099</v>
+      </c>
+      <c r="Y91">
+        <v>-10.312193161528459</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1345</v>
+      </c>
+      <c r="D92">
+        <v>1346.85</v>
+      </c>
+      <c r="E92">
+        <v>1288.2</v>
+      </c>
+      <c r="F92">
+        <v>1294.95</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1310</v>
+      </c>
+      <c r="H92">
+        <v>1319.8788004210205</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1349.2071538024502</v>
+      </c>
+      <c r="K92">
+        <v>1320.2685067404007</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>24.607659042504491</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>58.649999999999864</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.11508951406649644</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>1339.5793680163333</v>
+      </c>
+      <c r="W92">
+        <v>1357.2702867919738</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-17.690918775640512</v>
+      </c>
+      <c r="Y92">
+        <v>-11.787938284350869</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>1340.15</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>1324.45</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>1317.5500000000002</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>1310.6000000000001</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1300</v>
+      </c>
+      <c r="D93">
+        <v>1330</v>
+      </c>
+      <c r="E93">
+        <v>1278</v>
+      </c>
+      <c r="F93">
+        <v>1282.5999999999999</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1296.8666666666666</v>
+      </c>
+      <c r="H93">
+        <v>1308.3727335438434</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1344.9388974019057</v>
+      </c>
+      <c r="K93">
+        <v>1310.8755052425338</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>21.13335406566998</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999091</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>8.8461538461536718E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>1330.8133113984359</v>
+      </c>
+      <c r="W93">
+        <v>1351.7391544370128</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-20.925843038576886</v>
+      </c>
+      <c r="Y93">
+        <v>-13.615519235196071</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1324.0500000000002</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1310.1500000000001</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1304</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1297.8500000000001</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1284</v>
+      </c>
+      <c r="D94">
+        <v>1304.9000000000001</v>
+      </c>
+      <c r="E94">
+        <v>1278.95</v>
+      </c>
+      <c r="F94">
+        <v>1300</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1294.6166666666668</v>
+      </c>
+      <c r="H94">
+        <v>1301.4947001052551</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1336.0413646459267</v>
+      </c>
+      <c r="K94">
+        <v>1303.7809485219707</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>36.838511600161908</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>21.049999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>25.950000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.81117533718689472</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1326.0728019525227</v>
+      </c>
+      <c r="W94">
+        <v>1347.9066244787155</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-21.833822526192762</v>
+      </c>
+      <c r="Y94">
+        <v>-15.259179893395409</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1310</v>
+      </c>
+      <c r="D95">
+        <v>1320.05</v>
+      </c>
+      <c r="E95">
+        <v>1303</v>
+      </c>
+      <c r="F95">
+        <v>1308</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1310.3500000000001</v>
+      </c>
+      <c r="H95">
+        <v>1305.9223500526277</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1332.4877280579431</v>
+      </c>
+      <c r="K95">
+        <v>1303.6074044059771</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>43.324752879755621</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>17.049999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.29325513196481018</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1323.2923708829039</v>
+      </c>
+      <c r="W95">
+        <v>1344.9505782210329</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-21.658207338128932</v>
+      </c>
+      <c r="Y95">
+        <v>-16.538985382342112</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1313</v>
+      </c>
+      <c r="D96">
+        <v>1313</v>
+      </c>
+      <c r="E96">
+        <v>1288.25</v>
+      </c>
+      <c r="F96">
+        <v>1294</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1298.4166666666667</v>
+      </c>
+      <c r="H96">
+        <v>1302.1695083596474</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1328.1571218228446</v>
+      </c>
+      <c r="K96">
+        <v>1300.1946478713155</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>35.377516240108768</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>24.75</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.23232323232323232</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1318.785852285534</v>
+      </c>
+      <c r="W96">
+        <v>1341.1764613157711</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-22.390609030237101</v>
+      </c>
+      <c r="Y96">
+        <v>-17.709310111921109</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1290</v>
+      </c>
+      <c r="D97">
+        <v>1304</v>
+      </c>
+      <c r="E97">
+        <v>1285</v>
+      </c>
+      <c r="F97">
+        <v>1286</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1291.6666666666667</v>
+      </c>
+      <c r="H97">
+        <v>1296.9180875131569</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1322.7888725288792</v>
+      </c>
+      <c r="K97">
+        <v>1296.8180594554676</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>31.279181769559017</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>1313.7418750108366</v>
+      </c>
+      <c r="W97">
+        <v>1337.0893160331213</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-23.347441022284784</v>
+      </c>
+      <c r="Y97">
+        <v>-18.836936293993844</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1301</v>
+      </c>
+      <c r="D98">
+        <v>1306.2</v>
+      </c>
+      <c r="E98">
+        <v>1291</v>
+      </c>
+      <c r="F98">
+        <v>1293.4000000000001</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1296.8666666666666</v>
+      </c>
+      <c r="H98">
+        <v>1296.8923770899119</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1319.1024564113504</v>
+      </c>
+      <c r="K98">
+        <v>1295.5251573542525</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>39.396779222677374</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.4000000000000909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>15.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.15789473684211078</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>1310.6123557784001</v>
+      </c>
+      <c r="W98">
+        <v>1333.8530704010384</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-23.240714622638279</v>
+      </c>
+      <c r="Y98">
+        <v>-19.717691959722732</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1304</v>
+      </c>
+      <c r="D99">
+        <v>1304.7</v>
+      </c>
+      <c r="E99">
+        <v>1288.0999999999999</v>
+      </c>
+      <c r="F99">
+        <v>1294.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1295.6166666666668</v>
+      </c>
+      <c r="H99">
+        <v>1296.2545218782893</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1315.9019105421614</v>
+      </c>
+      <c r="K99">
+        <v>1293.8751223866409</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>40.172722684649891</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>5.9500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>16.600000000000136</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.35843373493975883</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1308.0643010432616</v>
+      </c>
+      <c r="W99">
+        <v>1330.9046948157763</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-22.840393772514744</v>
+      </c>
+      <c r="Y99">
+        <v>-20.342232322281134</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1300.0999999999999</v>
+      </c>
+      <c r="D100">
+        <v>1306.2</v>
+      </c>
+      <c r="E100">
+        <v>1289.5999999999999</v>
+      </c>
+      <c r="F100">
+        <v>1289.6500000000001</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1295.1500000000001</v>
+      </c>
+      <c r="H100">
+        <v>1295.7022609391447</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1313.7459304216811</v>
+      </c>
+      <c r="K100">
+        <v>1292.9250951896095</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>36.24588937618558</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.0000000000181899E-2</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>16.600000000000136</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>3.0120481927820172E-3</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>1305.2313316519906</v>
+      </c>
+      <c r="W100">
+        <v>1327.8487914960892</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-22.617459844098676</v>
+      </c>
+      <c r="Y100">
+        <v>-20.797277826644642</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1293.5</v>
+      </c>
+      <c r="D101">
+        <v>1296.6500000000001</v>
+      </c>
+      <c r="E101">
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="F101">
+        <v>1291</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1289.25</v>
+      </c>
+      <c r="H101">
+        <v>1292.4761304695724</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1309.9468347724187</v>
+      </c>
+      <c r="K101">
+        <v>1290.0750740363628</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>38.549595364909592</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>10.900000000000091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>16.550000000000182</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.65861027190332155</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1303.0418960132229</v>
+      </c>
+      <c r="W101">
+        <v>1325.1192513852677</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-22.077355372044849</v>
+      </c>
+      <c r="Y101">
+        <v>-21.053293335724682</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1288</v>
+      </c>
+      <c r="D102">
+        <v>1297</v>
+      </c>
+      <c r="E102">
+        <v>1281.55</v>
+      </c>
+      <c r="F102">
+        <v>1285.45</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1288</v>
+      </c>
+      <c r="H102">
+        <v>1290.2380652347861</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1307.0697603785479</v>
+      </c>
+      <c r="K102">
+        <v>1288.1806131393932</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>32.512377879496519</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000909</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>15.450000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.25242718446602458</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1300.335450472727</v>
+      </c>
+      <c r="W102">
+        <v>1322.1807883196923</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-21.845337846965322</v>
+      </c>
+      <c r="Y102">
+        <v>-21.211702237972808</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1282.5999999999999</v>
+      </c>
+      <c r="D103">
+        <v>1292</v>
+      </c>
+      <c r="E103">
+        <v>1246</v>
+      </c>
+      <c r="F103">
+        <v>1262</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1266.6666666666667</v>
+      </c>
+      <c r="H103">
+        <v>1278.4523659507263</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1303.7209247388705</v>
+      </c>
+      <c r="K103">
+        <v>1278.8071435528614</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>17.794175989716667</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>46</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1294.4376888615382</v>
+      </c>
+      <c r="W103">
+        <v>1317.7229521478632</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-23.285263286325062</v>
+      </c>
+      <c r="Y103">
+        <v>-21.62641444764326</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1265.3</v>
+      </c>
+      <c r="D104">
+        <v>1265.45</v>
+      </c>
+      <c r="E104">
+        <v>1242.3499999999999</v>
+      </c>
+      <c r="F104">
+        <v>1246.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1251.4333333333334</v>
+      </c>
+      <c r="H104">
+        <v>1264.9428496420298</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1295.2162747968994</v>
+      </c>
+      <c r="K104">
+        <v>1270.7055560966699</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>12.950367379861284</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.1500000000000909</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>23.100000000000136</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.17965367965368254</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>1287.0626598059168</v>
+      </c>
+      <c r="W104">
+        <v>1312.4471779146882</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-25.384518108771317</v>
+      </c>
+      <c r="Y104">
+        <v>-22.378035179868871</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>1262.8000000000002</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>1256.6500000000001</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>1253.9000000000001</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>1251.1500000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1253</v>
+      </c>
+      <c r="D105">
+        <v>1255.4000000000001</v>
+      </c>
+      <c r="E105">
+        <v>1224</v>
+      </c>
+      <c r="F105">
+        <v>1236.25</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1238.55</v>
+      </c>
+      <c r="H105">
+        <v>1251.7464248210149</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1286.3682137309218</v>
+      </c>
+      <c r="K105">
+        <v>1260.3265436307431</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>10.571599904305447</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>12.25</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>31.400000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.39012738853503071</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1279.2453275280834</v>
+      </c>
+      <c r="W105">
+        <v>1306.8029425136001</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-27.557614985516693</v>
+      </c>
+      <c r="Y105">
+        <v>-23.413951140998435</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1232</v>
+      </c>
+      <c r="D106">
+        <v>1249</v>
+      </c>
+      <c r="E106">
+        <v>1225</v>
+      </c>
+      <c r="F106">
+        <v>1228</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1234</v>
+      </c>
+      <c r="H106">
+        <v>1242.8732124105074</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1278.0641662351613</v>
+      </c>
+      <c r="K106">
+        <v>1252.476200601689</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>8.9226615523693091</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>1271.3614309853012</v>
+      </c>
+      <c r="W106">
+        <v>1300.9656875125927</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-29.604256527291454</v>
+      </c>
+      <c r="Y106">
+        <v>-24.652012218257038</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>1246.25</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>1239.8500000000001</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>1237</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>1234.1500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1231</v>
+      </c>
+      <c r="D107">
+        <v>1260.5</v>
+      </c>
+      <c r="E107">
+        <v>1231</v>
+      </c>
+      <c r="F107">
+        <v>1258</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="H107">
+        <v>1246.3532728719204</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1274.1610181829033</v>
+      </c>
+      <c r="K107">
+        <v>1247.7037115790915</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>46.706967713697324</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>29.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1269.3058262183317</v>
+      </c>
+      <c r="W107">
+        <v>1297.7830439931413</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-28.47721777480956</v>
+      </c>
+      <c r="Y107">
+        <v>-25.417053329567544</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
